--- a/HW/PCB/bom.xlsx
+++ b/HW/PCB/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\FOC_Controller\HW\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A23AB2C-0356-4395-B308-F1D5720AD8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E7847E-789F-4B91-ACFA-8BD1E860FD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>C21, C22</t>
   </si>
   <si>
-    <t>C8, C9, C27, C28, C29</t>
-  </si>
-  <si>
     <t>10u/25V, electrolytic</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>J2, J4</t>
+  </si>
+  <si>
+    <t>C8, C9, [C27, C28, C29]-&gt;22p</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1051,7 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="41.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" customWidth="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" customWidth="1"/>
   </cols>
@@ -1075,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
@@ -1252,7 +1253,7 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>6.5000000000000002E-2</v>
@@ -1268,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>83</v>
@@ -1285,7 +1286,7 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>0.17199999999999999</v>
@@ -1301,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>84</v>
@@ -1315,7 +1316,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>9.9000000000000005E-2</v>
@@ -1331,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>74</v>
@@ -1345,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <v>9.9000000000000005E-2</v>
@@ -1361,10 +1362,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>76</v>
@@ -1377,7 +1378,7 @@
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>6.5000000000000002E-2</v>
@@ -1393,13 +1394,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1407,7 +1408,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <v>9.9000000000000005E-2</v>
@@ -1423,10 +1424,10 @@
         <v>5</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>78</v>
@@ -1437,7 +1438,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15">
         <v>0.10299999999999999</v>
@@ -1453,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>80</v>
@@ -1470,7 +1471,7 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <v>0.12</v>
@@ -1486,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>87</v>
@@ -1500,7 +1501,7 @@
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17">
         <v>0.159</v>
@@ -1516,10 +1517,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>89</v>
@@ -1576,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>44</v>
@@ -1587,10 +1588,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21">
         <v>0.30099999999999999</v>
@@ -1606,10 +1607,10 @@
         <v>5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>94</v>
@@ -1617,10 +1618,10 @@
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22">
         <v>7.6999999999999999E-2</v>
@@ -1636,21 +1637,21 @@
         <v>5</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23">
         <v>0.151</v>
@@ -1666,21 +1667,21 @@
         <v>5</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24">
         <v>0.155</v>
@@ -1696,10 +1697,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>93</v>
@@ -1707,10 +1708,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25">
         <v>0.42599999999999999</v>
@@ -1726,22 +1727,22 @@
         <v>5</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="C26">
         <v>0.11600000000000001</v>
@@ -1757,10 +1758,10 @@
         <v>5</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>95</v>
@@ -1769,7 +1770,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>57</v>
@@ -1788,22 +1789,22 @@
         <v>5</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28">
         <v>0.219</v>
@@ -1819,22 +1820,22 @@
         <v>5</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29">
         <v>0.129</v>
@@ -1850,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30">
         <v>0.16300000000000001</v>
@@ -1881,18 +1882,18 @@
         <v>5</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -1905,7 +1906,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1927,12 +1928,12 @@
         <v>32</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -1968,7 +1969,7 @@
         <v>35</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1995,7 +1996,7 @@
         <v>21</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2022,12 +2023,12 @@
         <v>23</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2040,10 +2041,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="C38">
         <v>0.28000000000000003</v>
@@ -2059,18 +2060,18 @@
         <v>5</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2084,7 +2085,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
@@ -2106,12 +2107,12 @@
         <v>30</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2124,7 +2125,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -2146,12 +2147,12 @@
         <v>25</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2186,7 +2187,7 @@
         <v>41</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -2213,7 +2214,7 @@
         <v>42</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2240,7 +2241,7 @@
         <v>47</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -2267,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -2294,7 +2295,7 @@
         <v>53</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2323,7 @@
         <v>50</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
